--- a/public/식단표 양식.xlsx
+++ b/public/식단표 양식.xlsx
@@ -13,7 +13,7 @@
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <x:sheet name="이름변경" sheetId="2" r:id="rId5"/>
+    <x:sheet name="사용 방법" sheetId="2" r:id="rId5"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="헤더">Sheet1!$A$1:$D$1</x:definedName>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <x:si>
     <x:t>알레르기 번호
 1. 알레르기가 여러 개인 경우 번호와 번호는 "," 로 연결합니다.
@@ -31,101 +31,106 @@
 3. 띄어쓰기는 상관 없습니다.</x:t>
   </x:si>
   <x:si>
+    <x:t>날짜(양식)
+1. YYYY-MM-DD 형식으로 입력해주세요!
+Ex) 2024년 4월 3일일때 = 2024-04-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>⁝</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차조밥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>순번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>귀리밥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>누룽지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메뉴명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업로드에 오류가 있다면? 
+1. 서식이 텍스트인지 확인해주세요! 텍스트 형식으로만 업로드 가능합니다.
+2. 띄어쓰기는 상관 없습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>602/32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식단표 양식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메뉴 명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,6,16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소고기무국</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5, 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가래떡 &amp; 꿀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>순두부 감자국</x:t>
+  </x:si>
+  <x:si>
+    <x:t>핫도그 케찹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알레르기 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>애호박표고볶음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5, 6, 10, 18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돈안심조랭이떡조림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024-06-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024-06-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사이드 메뉴 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">사이드 메뉴 번호
+1. 사이드 메뉴를 입력후에 양식 업로드를 해주세요.
+2. 사이드 메뉴가 필요 없는 경우 사이드 메뉴 번호는 1로 입력 해주세요. </x:t>
+  </x:si>
+  <x:si>
     <x:t>사이드 메뉴(예시) 
 1. 오늘의 식단
 2. kcal/단백질(g) 
 3. 간식</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">사이드 메뉴 번호
-1. 사이드 메뉴를 입력후에 양식 업로드를 해주세요.
-2. 사이드 메뉴가 필요 없는 경우 사이드 메뉴 번호는 1로 입력 해주세요. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>업로드에 오류가 있다면? 
-1. 서식이 텍스트인지 확인해주세요! 텍스트 형식으로만 업로드 가능합니다.
-2. 띄어쓰기는 상관 없습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차조밥</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>순번</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메뉴명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>귀리밥</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>⁝</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>누룽지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메뉴 명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,6,16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알레르기 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>602/32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>애호박표고볶음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>순두부 감자국</x:t>
-  </x:si>
-  <x:si>
-    <x:t>핫도그 케찹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>식단표 양식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가래떡 &amp; 꿀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5, 6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소고기무국</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024-06-20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사이드 메뉴 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>돈안심조랭이떡조림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024-06-21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5, 6, 10, 18</x:t>
   </x:si>
   <x:si>
     <x:t>1, 2, 5, 6, 10, 12, 15</x:t>
@@ -1027,7 +1032,7 @@
   <x:dimension ref="A1:E26"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B2" activeCellId="0" sqref="B2:B2"/>
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -1041,19 +1046,19 @@
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B1" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C1" s="6" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D1" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E1" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
@@ -1290,10 +1295,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet2"/>
-  <x:dimension ref="A1:E18"/>
+  <x:dimension ref="A1:E19"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F14" activeCellId="0" sqref="F14:F14"/>
+      <x:selection activeCell="A15" activeCellId="0" sqref="A15:E15"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -1308,7 +1313,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:5" ht="26.350000000000001">
       <x:c r="A1" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B1" s="11"/>
       <x:c r="C1" s="11"/>
@@ -1317,45 +1322,45 @@
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="7" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B2" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D2" s="7" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E2" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="8" t="s">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B3" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C3" s="8" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D3" s="8" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="8"/>
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="8" t="s">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C4" s="8" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D4" s="8" t="s">
         <x:v>4</x:v>
@@ -1364,137 +1369,137 @@
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="8" t="s">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C5" s="8" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D5" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E5" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="8" t="s">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="8" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C6" s="8" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D6" s="8" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C6" s="8" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D6" s="8" t="s">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="E6" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="8" t="s">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C7" s="8" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D7" s="8" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E7" s="8" t="s">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="E7" s="8" t="s">
-        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="8" t="s">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B8" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D8" s="8" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E8" s="8"/>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="8" t="s">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B9" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D9" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="8" t="s">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B10" s="8" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D10" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E10" s="8"/>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="8" t="s">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B11" s="8" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D11" s="8" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E11" s="8"/>
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="8" t="s">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B12" s="8" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D12" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E12" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="13" t="s">
-        <x:v>12</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B13" s="13"/>
       <x:c r="C13" s="13"/>
@@ -1508,7 +1513,7 @@
       <x:c r="D14" s="9"/>
       <x:c r="E14" s="9"/>
     </x:row>
-    <x:row r="15" spans="1:5" ht="63" customHeight="1">
+    <x:row r="15" spans="1:5" customFormat="1" ht="56.25" customHeight="1">
       <x:c r="A15" s="12" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1519,7 +1524,7 @@
     </x:row>
     <x:row r="16" spans="1:5" ht="63" customHeight="1">
       <x:c r="A16" s="12" t="s">
-        <x:v>2</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B16" s="12"/>
       <x:c r="C16" s="12"/>
@@ -1528,7 +1533,7 @@
     </x:row>
     <x:row r="17" spans="1:5" ht="63" customHeight="1">
       <x:c r="A17" s="12" t="s">
-        <x:v>0</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B17" s="12"/>
       <x:c r="C17" s="12"/>
@@ -1537,21 +1542,31 @@
     </x:row>
     <x:row r="18" spans="1:5" ht="63" customHeight="1">
       <x:c r="A18" s="12" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="12"/>
       <x:c r="C18" s="12"/>
       <x:c r="D18" s="12"/>
       <x:c r="E18" s="12"/>
     </x:row>
+    <x:row r="19" spans="1:5" ht="63" customHeight="1">
+      <x:c r="A19" s="12" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B19" s="12"/>
+      <x:c r="C19" s="12"/>
+      <x:c r="D19" s="12"/>
+      <x:c r="E19" s="12"/>
+    </x:row>
   </x:sheetData>
-  <x:mergeCells count="6">
+  <x:mergeCells count="7">
     <x:mergeCell ref="A1:E1"/>
-    <x:mergeCell ref="A15:E15"/>
     <x:mergeCell ref="A16:E16"/>
     <x:mergeCell ref="A17:E17"/>
     <x:mergeCell ref="A18:E18"/>
+    <x:mergeCell ref="A19:E19"/>
     <x:mergeCell ref="A13:E13"/>
+    <x:mergeCell ref="A15:E15"/>
   </x:mergeCells>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
